--- a/library/export_po.xlsx
+++ b/library/export_po.xlsx
@@ -726,87 +726,120 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -819,49 +852,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1517,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S628"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2042,90 +2042,90 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="47"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="6" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="41" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
       <c r="O8" s="13"/>
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83" t="s">
+      <c r="C9" s="76"/>
+      <c r="D9" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
@@ -2140,14 +2140,14 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
     </row>
     <row r="12" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
@@ -2158,16 +2158,16 @@
       <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="63" t="s">
+      <c r="B13" s="73"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
       <c r="K13" s="3"/>
       <c r="L13" s="8"/>
       <c r="S13" s="7">
@@ -2176,16 +2176,16 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="43" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" spans="1:19" s="11" customFormat="1" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
